--- a/Study Notes.xlsx
+++ b/Study Notes.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/woohyunjo/Desktop/2024 Job Application/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/woohyunjo/Desktop/dsa_playground/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C41AB94B-3C32-C740-A943-74EE33CE5E9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20CDEC5-9073-8A44-8998-8B1718901644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="109">
   <si>
     <t>Category</t>
   </si>
@@ -365,6 +365,12 @@
   </si>
   <si>
     <t>https://leetcode.com/problems/valid-parentheses/</t>
+  </si>
+  <si>
+    <t>https://leetcode.com/problems/reverse-words-in-a-string-ii/description/</t>
+  </si>
+  <si>
+    <t>Same as above; 3. Reverse whole array and use sliding window to reverse each word again. </t>
   </si>
 </sst>
 </file>
@@ -665,7 +671,7 @@
     <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -704,6 +710,8 @@
     <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="2"/>
     <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -929,7 +937,7 @@
   <dimension ref="A1:G1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1054,8 +1062,12 @@
       <c r="C7" s="25" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="9"/>
-      <c r="E7" s="7"/>
+      <c r="D7" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="E7" s="39" t="s">
+        <v>108</v>
+      </c>
     </row>
     <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="26">

--- a/Study Notes.xlsx
+++ b/Study Notes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/woohyunjo/Desktop/dsa_playground/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F20CDEC5-9073-8A44-8998-8B1718901644}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D56C20-6632-0741-ABC9-75A1E61D304F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="112">
   <si>
     <t>Category</t>
   </si>
@@ -372,12 +372,21 @@
   <si>
     <t>Same as above; 3. Reverse whole array and use sliding window to reverse each word again. </t>
   </si>
+  <si>
+    <t>https://leetcode.com/problems/lowest-common-ancestor-of-a-binary-tree/</t>
+  </si>
+  <si>
+    <t>Binary search until you find that L[i-1] &gt; L[i]. Choose whether to go left or right based on comparing with first or last element of the array.</t>
+  </si>
+  <si>
+    <t>Recursive: think about in what cases NODE can be the LCA, based on whether either subtrees contain p or q and if NODE is p or q. | Iterative: log parent pointers</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -462,18 +471,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -666,12 +663,12 @@
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -684,34 +681,27 @@
     <xf numFmtId="0" fontId="5" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="14" fillId="7" borderId="2" xfId="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="1" xfId="2" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="1" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="13" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="14" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="15" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="17" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="3" applyBorder="1"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="1" xfId="4" applyBorder="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="2"/>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" xfId="4"/>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="1" xfId="3" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="1" xfId="4" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Bad" xfId="3" builtinId="27"/>
@@ -936,8 +926,8 @@
   </sheetPr>
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -967,18 +957,18 @@
       <c r="F1" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="G1" s="26">
+      <c r="G1" s="17">
         <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="26">
+      <c r="A2" s="17">
         <v>100</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="16" t="s">
         <v>4</v>
       </c>
       <c r="D2" s="9" t="s">
@@ -987,18 +977,18 @@
       <c r="E2" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="34">
+      <c r="G2" s="25">
         <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="26">
+      <c r="A3" s="17">
         <v>100</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="25" t="s">
+      <c r="C3" s="16" t="s">
         <v>20</v>
       </c>
       <c r="D3" s="9" t="s">
@@ -1007,28 +997,28 @@
       <c r="E3" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="33">
+      <c r="G3" s="24">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="25" t="s">
+      <c r="C4" s="16" t="s">
         <v>29</v>
       </c>
       <c r="D4" s="9"/>
       <c r="E4" s="7"/>
     </row>
     <row r="5" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="26">
+      <c r="A5" s="17">
         <v>100</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="25" t="s">
+      <c r="C5" s="16" t="s">
         <v>30</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -1039,13 +1029,13 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="34">
+      <c r="A6" s="25">
         <v>50</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="25" t="s">
+      <c r="C6" s="16" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="9" t="s">
@@ -1056,27 +1046,27 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B7" s="27" t="s">
+      <c r="B7" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C7" s="25" t="s">
+      <c r="C7" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="38" t="s">
+      <c r="D7" s="29" t="s">
         <v>107</v>
       </c>
-      <c r="E7" s="39" t="s">
+      <c r="E7" s="30" t="s">
         <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="26">
+      <c r="A8" s="17">
         <v>100</v>
       </c>
-      <c r="B8" s="27" t="s">
+      <c r="B8" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="16" t="s">
         <v>19</v>
       </c>
       <c r="D8" s="12" t="s">
@@ -1087,73 +1077,73 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B9" s="27" t="s">
+      <c r="B9" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C9" s="25" t="s">
+      <c r="C9" s="16" t="s">
         <v>22</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="7"/>
     </row>
     <row r="10" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B10" s="27" t="s">
+      <c r="B10" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="25" t="s">
+      <c r="C10" s="16" t="s">
         <v>18</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="7"/>
     </row>
     <row r="11" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B11" s="27" t="s">
+      <c r="B11" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="25" t="s">
+      <c r="C11" s="16" t="s">
         <v>33</v>
       </c>
       <c r="D11" s="9"/>
       <c r="E11" s="7"/>
     </row>
     <row r="12" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B12" s="27" t="s">
+      <c r="B12" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="25" t="s">
+      <c r="C12" s="16" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="11"/>
       <c r="E12" s="7"/>
     </row>
     <row r="13" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B13" s="27" t="s">
+      <c r="B13" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="25" t="s">
+      <c r="C13" s="16" t="s">
         <v>17</v>
       </c>
       <c r="D13" s="11"/>
       <c r="E13" s="7"/>
     </row>
     <row r="14" spans="1:7" ht="15" x14ac:dyDescent="0.2">
-      <c r="B14" s="27" t="s">
+      <c r="B14" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="25" t="s">
+      <c r="C14" s="31" t="s">
         <v>16</v>
       </c>
       <c r="D14" s="12"/>
       <c r="E14" s="7"/>
     </row>
     <row r="15" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="26">
+      <c r="A15" s="17">
         <v>100</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="B15" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="25" t="s">
+      <c r="C15" s="16" t="s">
         <v>37</v>
       </c>
       <c r="D15" s="11" t="s">
@@ -1164,13 +1154,13 @@
       </c>
     </row>
     <row r="16" spans="1:7" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="26">
+      <c r="A16" s="17">
         <v>100</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="B16" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C16" s="25" t="s">
+      <c r="C16" s="16" t="s">
         <v>38</v>
       </c>
       <c r="D16" s="11" t="s">
@@ -1181,70 +1171,70 @@
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="B17" s="28" t="s">
+      <c r="B17" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C17" s="25" t="s">
+      <c r="C17" s="16" t="s">
         <v>39</v>
       </c>
       <c r="D17" s="9"/>
       <c r="E17" s="7"/>
     </row>
     <row r="18" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="16" t="s">
         <v>40</v>
       </c>
       <c r="D18" s="9"/>
       <c r="E18" s="7"/>
     </row>
     <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="25" t="s">
+      <c r="C19" s="16" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="7"/>
     </row>
     <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="B20" s="28" t="s">
+      <c r="B20" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C20" s="25" t="s">
+      <c r="C20" s="16" t="s">
         <v>41</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="7"/>
     </row>
     <row r="21" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="B21" s="28" t="s">
+      <c r="B21" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C21" s="25" t="s">
+      <c r="C21" s="16" t="s">
         <v>42</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="7"/>
     </row>
     <row r="22" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="B22" s="28" t="s">
+      <c r="B22" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="C22" s="25" t="s">
+      <c r="C22" s="16" t="s">
         <v>43</v>
       </c>
       <c r="D22" s="9"/>
       <c r="E22" s="7"/>
     </row>
     <row r="23" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A23" s="34">
+      <c r="A23" s="25">
         <v>50</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="20" t="s">
         <v>36</v>
       </c>
       <c r="C23" t="s">
@@ -1258,7 +1248,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="20" t="s">
         <v>36</v>
       </c>
       <c r="C24" t="s">
@@ -1268,7 +1258,7 @@
       <c r="E24" s="7"/>
     </row>
     <row r="25" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="B25" s="29" t="s">
+      <c r="B25" s="20" t="s">
         <v>36</v>
       </c>
       <c r="C25" t="s">
@@ -1278,7 +1268,7 @@
       <c r="E25" s="7"/>
     </row>
     <row r="26" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="20" t="s">
         <v>36</v>
       </c>
       <c r="C26" t="s">
@@ -1288,16 +1278,16 @@
       <c r="E26" s="7"/>
     </row>
     <row r="27" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A27" s="35">
+      <c r="A27" s="26">
         <v>100</v>
       </c>
-      <c r="B27" s="29" t="s">
+      <c r="B27" s="20" t="s">
         <v>36</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="12" t="s">
         <v>86</v>
       </c>
       <c r="E27" s="7" t="s">
@@ -1305,10 +1295,10 @@
       </c>
     </row>
     <row r="28" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A28" s="36">
+      <c r="A28" s="27">
         <v>50</v>
       </c>
-      <c r="B28" s="29" t="s">
+      <c r="B28" s="20" t="s">
         <v>36</v>
       </c>
       <c r="C28" t="s">
@@ -1322,27 +1312,33 @@
       </c>
     </row>
     <row r="29" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="B29" s="29" t="s">
+      <c r="B29" s="20" t="s">
         <v>36</v>
       </c>
       <c r="C29" t="s">
         <v>49</v>
       </c>
       <c r="D29" s="9"/>
-      <c r="E29" s="7"/>
+      <c r="E29" s="32" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="30" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="B30" s="29" t="s">
+      <c r="B30" s="20" t="s">
         <v>36</v>
       </c>
       <c r="C30" t="s">
         <v>50</v>
       </c>
-      <c r="D30" s="9"/>
-      <c r="E30" s="7"/>
+      <c r="D30" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>111</v>
+      </c>
     </row>
     <row r="31" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="B31" s="29" t="s">
+      <c r="B31" s="20" t="s">
         <v>36</v>
       </c>
       <c r="C31" t="s">
@@ -1352,7 +1348,7 @@
       <c r="E31" s="7"/>
     </row>
     <row r="32" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="B32" s="29" t="s">
+      <c r="B32" s="20" t="s">
         <v>36</v>
       </c>
       <c r="C32" t="s">
@@ -1362,7 +1358,7 @@
       <c r="E32" s="7"/>
     </row>
     <row r="33" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="B33" s="29" t="s">
+      <c r="B33" s="20" t="s">
         <v>36</v>
       </c>
       <c r="C33" t="s">
@@ -1372,7 +1368,7 @@
       <c r="E33" s="7"/>
     </row>
     <row r="34" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="B34" s="30" t="s">
+      <c r="B34" s="21" t="s">
         <v>44</v>
       </c>
       <c r="C34" t="s">
@@ -1382,10 +1378,10 @@
       <c r="E34" s="7"/>
     </row>
     <row r="35" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="34">
+      <c r="A35" s="25">
         <v>50</v>
       </c>
-      <c r="B35" s="30" t="s">
+      <c r="B35" s="21" t="s">
         <v>44</v>
       </c>
       <c r="C35" s="5" t="s">
@@ -1399,7 +1395,7 @@
       </c>
     </row>
     <row r="36" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="B36" s="30" t="s">
+      <c r="B36" s="21" t="s">
         <v>44</v>
       </c>
       <c r="C36" s="5" t="s">
@@ -1409,7 +1405,7 @@
       <c r="E36" s="7"/>
     </row>
     <row r="37" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="B37" s="30" t="s">
+      <c r="B37" s="21" t="s">
         <v>44</v>
       </c>
       <c r="C37" t="s">
@@ -1419,7 +1415,7 @@
       <c r="E37" s="7"/>
     </row>
     <row r="38" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="B38" s="31" t="s">
+      <c r="B38" s="22" t="s">
         <v>54</v>
       </c>
       <c r="C38" t="s">
@@ -1429,7 +1425,7 @@
       <c r="E38" s="7"/>
     </row>
     <row r="39" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="22" t="s">
         <v>54</v>
       </c>
       <c r="C39" t="s">
@@ -1439,10 +1435,10 @@
       <c r="E39" s="7"/>
     </row>
     <row r="40" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A40" s="35">
+      <c r="A40" s="26">
         <v>100</v>
       </c>
-      <c r="B40" s="31" t="s">
+      <c r="B40" s="22" t="s">
         <v>54</v>
       </c>
       <c r="C40" t="s">
@@ -1456,17 +1452,19 @@
       </c>
     </row>
     <row r="41" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="B41" s="31" t="s">
+      <c r="B41" s="22" t="s">
         <v>54</v>
       </c>
       <c r="C41" t="s">
         <v>8</v>
       </c>
       <c r="D41" s="9"/>
-      <c r="E41" s="7"/>
+      <c r="E41" s="7" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="42" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="B42" s="31" t="s">
+      <c r="B42" s="22" t="s">
         <v>54</v>
       </c>
       <c r="C42" t="s">
@@ -1476,7 +1474,7 @@
       <c r="E42" s="7"/>
     </row>
     <row r="43" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="B43" s="31" t="s">
+      <c r="B43" s="22" t="s">
         <v>54</v>
       </c>
       <c r="C43" t="s">
@@ -1486,10 +1484,10 @@
       <c r="E43" s="7"/>
     </row>
     <row r="44" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A44" s="26">
+      <c r="A44" s="17">
         <v>100</v>
       </c>
-      <c r="B44" s="31" t="s">
+      <c r="B44" s="22" t="s">
         <v>54</v>
       </c>
       <c r="C44" t="s">
@@ -1503,19 +1501,17 @@
       </c>
     </row>
     <row r="45" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="B45" s="31" t="s">
+      <c r="B45" s="22" t="s">
         <v>54</v>
       </c>
       <c r="C45" t="s">
         <v>60</v>
       </c>
       <c r="D45" s="9"/>
-      <c r="E45" s="7" t="s">
-        <v>92</v>
-      </c>
+      <c r="E45" s="7"/>
     </row>
     <row r="46" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="B46" s="31" t="s">
+      <c r="B46" s="22" t="s">
         <v>54</v>
       </c>
       <c r="C46" t="s">
@@ -1524,10 +1520,10 @@
       <c r="D46" s="9"/>
     </row>
     <row r="47" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A47" s="26">
+      <c r="A47" s="17">
         <v>100</v>
       </c>
-      <c r="B47" s="32" t="s">
+      <c r="B47" s="23" t="s">
         <v>10</v>
       </c>
       <c r="C47" t="s">
@@ -1541,10 +1537,10 @@
       </c>
     </row>
     <row r="48" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A48" s="26">
+      <c r="A48" s="17">
         <v>100</v>
       </c>
-      <c r="B48" s="32" t="s">
+      <c r="B48" s="23" t="s">
         <v>10</v>
       </c>
       <c r="C48" t="s">
@@ -1553,21 +1549,24 @@
       <c r="D48" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="E48" s="37" t="s">
+      <c r="E48" s="28" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="B49" s="32" t="s">
+      <c r="B49" s="23" t="s">
         <v>10</v>
       </c>
       <c r="C49" t="s">
         <v>11</v>
       </c>
       <c r="D49" s="9"/>
+      <c r="E49" s="4" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="50" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="B50" s="27" t="s">
+      <c r="B50" s="18" t="s">
         <v>62</v>
       </c>
       <c r="C50" t="s">
@@ -1576,7 +1575,7 @@
       <c r="D50" s="9"/>
     </row>
     <row r="51" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="B51" s="27" t="s">
+      <c r="B51" s="18" t="s">
         <v>62</v>
       </c>
       <c r="C51" t="s">
@@ -1586,10 +1585,10 @@
       <c r="E51" s="7"/>
     </row>
     <row r="52" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A52" s="35">
+      <c r="A52" s="26">
         <v>100</v>
       </c>
-      <c r="B52" s="27" t="s">
+      <c r="B52" s="18" t="s">
         <v>62</v>
       </c>
       <c r="C52" t="s">
@@ -1603,7 +1602,7 @@
       </c>
     </row>
     <row r="53" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="B53" s="27" t="s">
+      <c r="B53" s="18" t="s">
         <v>62</v>
       </c>
       <c r="C53" t="s">
@@ -1617,7 +1616,7 @@
       </c>
     </row>
     <row r="54" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="B54" s="28" t="s">
+      <c r="B54" s="19" t="s">
         <v>65</v>
       </c>
       <c r="C54" t="s">
@@ -1627,19 +1626,17 @@
       <c r="E54" s="7"/>
     </row>
     <row r="55" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="B55" s="28" t="s">
+      <c r="B55" s="19" t="s">
         <v>65</v>
       </c>
       <c r="C55" t="s">
         <v>67</v>
       </c>
       <c r="D55" s="9"/>
-      <c r="E55" s="7" t="s">
-        <v>92</v>
-      </c>
+      <c r="E55" s="7"/>
     </row>
     <row r="56" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="B56" s="28" t="s">
+      <c r="B56" s="19" t="s">
         <v>65</v>
       </c>
       <c r="C56" t="s">
@@ -1648,19 +1645,17 @@
       <c r="D56" s="9"/>
     </row>
     <row r="57" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="B57" s="28" t="s">
+      <c r="B57" s="19" t="s">
         <v>65</v>
       </c>
       <c r="C57" t="s">
         <v>69</v>
       </c>
       <c r="D57" s="9"/>
-      <c r="E57" s="7" t="s">
-        <v>92</v>
-      </c>
+      <c r="E57" s="7"/>
     </row>
     <row r="58" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="B58" s="28" t="s">
+      <c r="B58" s="19" t="s">
         <v>65</v>
       </c>
       <c r="C58" t="s">
@@ -1670,7 +1665,7 @@
       <c r="E58" s="7"/>
     </row>
     <row r="59" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="B59" s="28" t="s">
+      <c r="B59" s="19" t="s">
         <v>65</v>
       </c>
       <c r="C59" t="s">
@@ -1805,109 +1800,117 @@
       <c r="D77" s="11"/>
       <c r="E77" s="7"/>
     </row>
-    <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A78" s="16"/>
-      <c r="B78" s="17"/>
-      <c r="C78" s="17"/>
-      <c r="D78" s="17"/>
-      <c r="E78" s="17"/>
-    </row>
-    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A79" s="16"/>
-      <c r="B79" s="17"/>
-      <c r="C79" s="17"/>
-      <c r="D79" s="17"/>
-      <c r="E79" s="17"/>
+    <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="6"/>
+      <c r="B78" s="7"/>
+      <c r="C78" s="8"/>
+      <c r="D78" s="9"/>
+      <c r="E78" s="7"/>
+    </row>
+    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="6"/>
+      <c r="B79" s="7"/>
+      <c r="C79" s="8"/>
+      <c r="D79" s="9"/>
+      <c r="E79" s="15"/>
     </row>
     <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A80" s="16"/>
-      <c r="B80" s="18"/>
+      <c r="A80" s="6"/>
+      <c r="B80" s="7"/>
       <c r="C80" s="13"/>
-      <c r="D80" s="17"/>
-      <c r="E80" s="18"/>
+      <c r="D80" s="12"/>
+      <c r="E80" s="7"/>
     </row>
     <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="16"/>
-      <c r="B81" s="17"/>
-      <c r="C81" s="17"/>
-      <c r="D81" s="17"/>
-      <c r="E81" s="18"/>
+      <c r="A81" s="6"/>
+      <c r="B81" s="7"/>
+      <c r="C81" s="10"/>
+      <c r="D81" s="9"/>
+      <c r="E81" s="7"/>
     </row>
     <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A82" s="16"/>
-      <c r="B82" s="17"/>
-      <c r="C82" s="10"/>
-      <c r="D82" s="17"/>
-      <c r="E82" s="18"/>
+      <c r="A82" s="6"/>
+      <c r="B82" s="7"/>
+      <c r="C82" s="13"/>
+      <c r="D82" s="9"/>
+      <c r="E82" s="7"/>
     </row>
     <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A83" s="16"/>
-      <c r="B83" s="17"/>
-      <c r="C83" s="19"/>
-      <c r="D83" s="17"/>
-      <c r="E83" s="18"/>
+      <c r="A83" s="6"/>
+      <c r="B83" s="7"/>
+      <c r="C83" s="8"/>
+      <c r="D83" s="9"/>
+      <c r="E83" s="7"/>
     </row>
     <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="16"/>
-      <c r="B84" s="17"/>
+      <c r="A84" s="6"/>
+      <c r="B84" s="7"/>
       <c r="C84" s="10"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="18"/>
+      <c r="D84" s="9"/>
+      <c r="E84" s="7"/>
     </row>
     <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="16"/>
-      <c r="B85" s="20"/>
-      <c r="C85" s="21"/>
-      <c r="D85" s="17"/>
-      <c r="E85" s="22"/>
+      <c r="A85" s="6"/>
+      <c r="B85" s="7"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="9"/>
+      <c r="E85" s="7"/>
     </row>
     <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A86" s="16"/>
-      <c r="B86" s="20"/>
-      <c r="C86" s="21"/>
-      <c r="D86" s="17"/>
-      <c r="E86" s="22"/>
+      <c r="A86" s="6"/>
+      <c r="B86" s="7"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="7"/>
     </row>
     <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="16"/>
-      <c r="B87" s="20"/>
-      <c r="C87" s="23"/>
-      <c r="D87" s="24"/>
-      <c r="E87" s="22"/>
-    </row>
-    <row r="88" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A88" s="16"/>
-      <c r="B88" s="17"/>
-      <c r="C88" s="17"/>
-      <c r="D88" s="17"/>
-      <c r="E88" s="17"/>
-    </row>
-    <row r="89" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A89" s="16"/>
-      <c r="B89" s="17"/>
-      <c r="C89" s="17"/>
-      <c r="D89" s="17"/>
-      <c r="E89" s="17"/>
-    </row>
-    <row r="90" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A90" s="16"/>
-      <c r="B90" s="17"/>
-      <c r="C90" s="17"/>
-      <c r="D90" s="17"/>
-      <c r="E90" s="17"/>
-    </row>
-    <row r="91" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A91" s="16"/>
-      <c r="B91" s="17"/>
-      <c r="C91" s="17"/>
-      <c r="D91" s="17"/>
-      <c r="E91" s="17"/>
-    </row>
-    <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A92" s="4"/>
-    </row>
-    <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A93" s="4"/>
+      <c r="A87" s="6"/>
+      <c r="B87" s="7"/>
+      <c r="C87" s="8"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="7"/>
+    </row>
+    <row r="88" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="6"/>
+      <c r="B88" s="7"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="7"/>
+    </row>
+    <row r="89" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="6"/>
+      <c r="B89" s="7"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="7"/>
+    </row>
+    <row r="90" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="6"/>
+      <c r="B90" s="7"/>
+      <c r="C90" s="13"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="7"/>
+    </row>
+    <row r="91" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="6"/>
+      <c r="B91" s="7"/>
+      <c r="C91" s="13"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="7"/>
+    </row>
+    <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="6"/>
+      <c r="B92" s="7"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="7"/>
+    </row>
+    <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="6"/>
+      <c r="B93" s="7"/>
+      <c r="C93" s="13"/>
+      <c r="D93" s="11"/>
+      <c r="E93" s="7"/>
     </row>
     <row r="94" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A94" s="4"/>
@@ -4635,6 +4638,7 @@
     <hyperlink ref="D40" r:id="rId1" xr:uid="{C8EC7582-87AF-964D-A288-0C338FDE3D06}"/>
     <hyperlink ref="D53" r:id="rId2" xr:uid="{B82C967E-09C6-0541-A062-4B56DEBA13CA}"/>
     <hyperlink ref="D8" r:id="rId3" xr:uid="{1B6CA4A4-2DC0-F94E-BE3D-E66D0CB30A7C}"/>
+    <hyperlink ref="D27" r:id="rId4" xr:uid="{A8279C85-571D-D344-A326-6AC8586F3724}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
